--- a/ClosedXML.Tests/Resource/Examples/Misc/CellValues.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/CellValues.xlsx
@@ -474,12 +474,12 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="12.270625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="9.830625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="13.250625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="19.660625" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="21.270625" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="20.560625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="12.140625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="10.390625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="13.240625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="19.530625" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="21.830625" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="20.400625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:7">

--- a/ClosedXML.Tests/Resource/Examples/Misc/CellValues.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/CellValues.xlsx
@@ -475,10 +475,10 @@
   <x:cols>
     <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="12.140625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="10.390625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="9.720625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="13.240625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="19.530625" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="21.830625" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="21.160625" style="0" customWidth="1"/>
     <x:col min="7" max="7" width="20.400625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>

--- a/ClosedXML.Tests/Resource/Examples/Misc/CellValues.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/CellValues.xlsx
@@ -474,12 +474,12 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="9.940625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="8.370625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="10.710625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="15.900625" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="17.700625" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="16.740625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="10.320625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="8.890625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="11.140625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="15.890625" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="17.360625" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="16.530625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:7">

--- a/ClosedXML.Tests/Resource/Examples/Misc/CellValues.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/CellValues.xlsx
@@ -474,12 +474,12 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="10.320625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="8.890625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="11.140625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="15.890625" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="17.360625" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="16.530625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="13.190625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="11.330625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="14.250625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="20.440625" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="22.350625" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="21.280625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:7">

--- a/ClosedXML.Tests/Resource/Examples/Misc/CellValues.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/CellValues.xlsx
@@ -474,12 +474,12 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="13.190625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="11.330625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="14.250625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="20.440625" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="22.350625" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="21.280625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="13.750625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="11.800625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="14.870625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="21.360625" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="23.360625" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="22.230625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:7">

--- a/ClosedXML.Tests/Resource/Examples/Misc/CellValues.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/CellValues.xlsx
@@ -474,12 +474,12 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="13.750625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="11.800625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="14.870625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="21.360625" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="23.360625" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="22.230625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="12.951027" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="11.129147" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="13.991289" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="20.050146" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="21.91826" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="20.867773" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:7">

--- a/ClosedXML.Tests/Resource/Examples/Misc/CellValues.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/CellValues.xlsx
@@ -474,12 +474,12 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="12.270625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="11.910625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="9.830625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="13.250625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="19.660625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="12.970625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="19.310625" style="0" customWidth="1"/>
     <x:col min="6" max="6" width="21.270625" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="20.560625" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="20.160625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:7">

--- a/ClosedXML.Tests/Resource/Examples/Misc/CellValues.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/CellValues.xlsx
@@ -474,12 +474,12 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="11.910625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="11.920625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="9.830625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="12.970625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="19.310625" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="21.270625" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="20.160625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="19.390625" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="21.220625" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="20.170625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:7">

--- a/ClosedXML.Tests/Resource/Examples/Misc/CellValues.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/CellValues.xlsx
@@ -41,6 +41,9 @@
     <x:t>2010-Sep-02</x:t>
   </x:si>
   <x:si>
+    <x:t>TRUE</x:t>
+  </x:si>
+  <x:si>
     <x:t>True</x:t>
   </x:si>
   <x:si>
@@ -51,9 +54,6 @@
   </x:si>
   <x:si>
     <x:t>Test Case</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.02:31:45</x:t>
   </x:si>
   <x:si>
     <x:t>26:31:45</x:t>
@@ -539,64 +539,64 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="G4" s="4" t="s">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:7">
-      <x:c r="B5" s="5" t="n">
+      <x:c r="B5" s="5">
         <x:v>1234.567</x:v>
       </x:c>
-      <x:c r="C5" s="0" t="n">
+      <x:c r="C5" s="0">
         <x:v>1234.567</x:v>
       </x:c>
-      <x:c r="D5" s="0" t="n">
+      <x:c r="D5" s="0">
         <x:v>1234.567</x:v>
       </x:c>
-      <x:c r="E5" s="0" t="n">
+      <x:c r="E5" s="0">
         <x:v>1234.567</x:v>
       </x:c>
       <x:c r="F5" s="4" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G5" s="4" t="s">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:7">
       <x:c r="B6" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E6" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F6" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G6" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:7">
-      <x:c r="B7" s="6" t="n">
+      <x:c r="B7" s="6">
         <x:v>1.10538194444444</x:v>
       </x:c>
-      <x:c r="C7" s="6" t="n">
+      <x:c r="C7" s="6">
         <x:v>1.10538194444444</x:v>
       </x:c>
-      <x:c r="D7" s="6" t="n">
+      <x:c r="D7" s="6">
         <x:v>1.10538194444444</x:v>
       </x:c>
-      <x:c r="E7" s="6" t="n">
+      <x:c r="E7" s="6">
         <x:v>1.10538194444444</x:v>
       </x:c>
       <x:c r="F7" s="4" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G7" s="4" t="s">
         <x:v>13</x:v>

--- a/ClosedXML.Tests/Resource/Examples/Misc/CellValues.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/CellValues.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <x:si>
     <x:t>Initial Value</x:t>
   </x:si>
@@ -42,9 +42,6 @@
   </x:si>
   <x:si>
     <x:t>TRUE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>True</x:t>
   </x:si>
   <x:si>
     <x:t>1234.567</x:t>
@@ -539,7 +536,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="G4" s="4" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:7">
@@ -556,30 +553,30 @@
         <x:v>1234.567</x:v>
       </x:c>
       <x:c r="F5" s="4" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="G5" s="4" t="s">
         <x:v>10</x:v>
-      </x:c>
-      <x:c r="G5" s="4" t="s">
-        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:7">
       <x:c r="B6" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E6" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F6" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G6" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:7">
@@ -596,10 +593,10 @@
         <x:v>1.10538194444444</x:v>
       </x:c>
       <x:c r="F7" s="4" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G7" s="4" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -624,7 +621,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:1">
       <x:c r="A1" s="4" t="s">
-        <x:v>14</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/ClosedXML.Tests/Resource/Examples/Misc/CellValues.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/CellValues.xlsx
@@ -8,6 +8,7 @@
   <x:sheets>
     <x:sheet name="Cell Values" sheetId="2" r:id="rId2"/>
     <x:sheet name="Test Whitespace" sheetId="3" r:id="rId3"/>
+    <x:sheet name="Errors" sheetId="4" r:id="rId4"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="125725"/>
@@ -15,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <x:si>
     <x:t>Initial Value</x:t>
   </x:si>
@@ -56,7 +57,16 @@
     <x:t>26:31:45</x:t>
   </x:si>
   <x:si>
+    <x:t>#DIV/0!</x:t>
+  </x:si>
+  <x:si>
     <x:t xml:space="preserve">    </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Error value</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Formula error</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -464,7 +474,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:G7"/>
+  <x:dimension ref="A1:G8"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -597,6 +607,26 @@
       </x:c>
       <x:c r="G7" s="4" t="s">
         <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:7">
+      <x:c r="B8" s="0" t="e">
+        <x:v>#DIV/0!</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="e">
+        <x:v>#DIV/0!</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="e">
+        <x:v>#DIV/0!</x:v>
+      </x:c>
+      <x:c r="E8" s="0" t="e">
+        <x:v>#DIV/0!</x:v>
+      </x:c>
+      <x:c r="F8" s="4" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="G8" s="4" t="s">
+        <x:v>13</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -621,7 +651,98 @@
   <x:sheetData>
     <x:row r="1" spans="1:1">
       <x:c r="A1" s="4" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:C9"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:sheetData>
+    <x:row r="2" spans="1:3">
+      <x:c r="B2" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:3">
+      <x:c r="B3" s="0" t="e">
+        <x:v>#REF!</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="e">
+        <x:f>#REF!+1</x:f>
+        <x:v>#REF!</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:3">
+      <x:c r="B4" s="0" t="e">
+        <x:v>#VALUE!</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="e">
+        <x:f>"TRUE"*1</x:f>
+        <x:v>#VALUE!</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:3">
+      <x:c r="B5" s="0" t="e">
+        <x:v>#DIV/0!</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="e">
+        <x:f>1/0</x:f>
+        <x:v>#DIV/0!</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:3">
+      <x:c r="B6" s="0" t="e">
+        <x:v>#NAME?</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="e">
+        <x:f>NONEXISTENT.FUNCTION()</x:f>
+        <x:v>#NAME?</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:3">
+      <x:c r="B7" s="0" t="e">
+        <x:v>#N/A</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="e">
+        <x:f>NA()</x:f>
+        <x:v>#N/A</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:3">
+      <x:c r="B8" s="0" t="e">
+        <x:v>#NULL!</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="e">
+        <x:f>#NULL!+1</x:f>
+        <x:v>#NULL!</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:3">
+      <x:c r="B9" s="0" t="e">
+        <x:v>#NUM!</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="e">
+        <x:f>#NUM!+1</x:f>
+        <x:v>#NUM!</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/ClosedXML.Tests/Resource/Examples/Misc/CellValues.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/CellValues.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:si>
     <x:t>Initial Value</x:t>
   </x:si>
@@ -75,8 +75,8 @@
 <x:styleSheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:numFmts count="3">
     <x:numFmt numFmtId="0" formatCode=""/>
-    <x:numFmt numFmtId="165" formatCode="yyyy-MMM-dd"/>
-    <x:numFmt numFmtId="166" formatCode="#,##0.00"/>
+    <x:numFmt numFmtId="164" formatCode="yyyy-MMM-dd"/>
+    <x:numFmt numFmtId="165" formatCode="#,##0.00"/>
   </x:numFmts>
   <x:fonts count="2">
     <x:font>
@@ -134,16 +134,16 @@
     <x:xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="46" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
@@ -159,7 +159,7 @@
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -171,7 +171,7 @@
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>

--- a/ClosedXML.Tests/Resource/Examples/Misc/CellValues.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/CellValues.xlsx
@@ -481,12 +481,12 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="11.920625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="9.830625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="12.970625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="19.390625" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="21.220625" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="20.170625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="11.567768" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="9.282054" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="12.567768" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="18.853482" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="20.567768" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="20.139196" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:7">

--- a/ClosedXML.Tests/Resource/Examples/Misc/CellValues.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/CellValues.xlsx
@@ -470,7 +470,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -639,7 +639,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -664,7 +664,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>

--- a/ClosedXML.Tests/Resource/Examples/Misc/CellValues.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/CellValues.xlsx
@@ -6,9 +6,9 @@
     <x:workbookView firstSheet="0" activeTab="0"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Cell Values" sheetId="2" r:id="rId2"/>
-    <x:sheet name="Test Whitespace" sheetId="3" r:id="rId3"/>
-    <x:sheet name="Errors" sheetId="4" r:id="rId4"/>
+    <x:sheet name="Cell Values" sheetId="1" r:id="rId2"/>
+    <x:sheet name="Test Whitespace" sheetId="2" r:id="rId3"/>
+    <x:sheet name="Errors" sheetId="3" r:id="rId4"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="125725"/>
